--- a/po_analysis_by_asin/B0CSK2GJXP_po_data.xlsx
+++ b/po_analysis_by_asin/B0CSK2GJXP_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45306</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>60</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45313</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>240</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45355</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>140</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45362</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>70</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45383</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>60</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45397</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>80</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45411</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>60</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45418</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>20</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45425</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>200</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45432</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>20</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45439</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>60</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45446</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>160</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45453</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>100</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45467</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>80</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45474</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>100</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45481</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>40</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45488</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>80</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45495</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>80</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45502</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>120</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45509</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B21" t="n">
         <v>180</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45523</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B22" t="n">
         <v>40</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45530</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B23" t="n">
         <v>180</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45551</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B24" t="n">
         <v>160</v>
@@ -636,7 +636,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45565</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B25" t="n">
         <v>220</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45593</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B26" t="n">
         <v>140</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>300</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45352</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>210</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45383</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>140</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45413</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>360</v>
@@ -715,7 +715,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45444</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>340</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45474</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>420</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45505</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>400</v>
@@ -739,7 +739,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45536</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>160</v>
@@ -747,7 +747,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45566</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>360</v>

--- a/po_analysis_by_asin/B0CSK2GJXP_po_data.xlsx
+++ b/po_analysis_by_asin/B0CSK2GJXP_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,116 +471,116 @@
         <v>45361.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45368.99999999999</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45389.99999999999</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45403.99999999999</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45417.99999999999</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45424.99999999999</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45431.99999999999</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45438.99999999999</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45445.99999999999</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45452.99999999999</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45459.99999999999</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45473.99999999999</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45480.99999999999</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45487.99999999999</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45494.99999999999</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>80</v>
@@ -588,65 +588,57 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45501.99999999999</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45508.99999999999</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45515.99999999999</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>180</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45529.99999999999</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>40</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45536.99999999999</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45557.99999999999</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>160</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45571.99999999999</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>45599.99999999999</v>
-      </c>
-      <c r="B26" t="n">
         <v>140</v>
       </c>
     </row>
@@ -694,7 +686,7 @@
         <v>45382.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>210</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">

--- a/po_analysis_by_asin/B0CSK2GJXP_po_data.xlsx
+++ b/po_analysis_by_asin/B0CSK2GJXP_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -669,7 +670,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -743,6 +744,495 @@
       </c>
       <c r="B10" t="n">
         <v>360</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>76</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-5.825370827157596</v>
+      </c>
+      <c r="D2" t="n">
+        <v>153.8978512955196</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>77</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.05423358162458949</v>
+      </c>
+      <c r="D3" t="n">
+        <v>152.2165448565046</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>85</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.576470551037624</v>
+      </c>
+      <c r="D4" t="n">
+        <v>164.8781268990627</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>91</v>
+      </c>
+      <c r="C5" t="n">
+        <v>14.52493389531118</v>
+      </c>
+      <c r="D5" t="n">
+        <v>166.1462253415498</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>94</v>
+      </c>
+      <c r="C6" t="n">
+        <v>19.73947797567184</v>
+      </c>
+      <c r="D6" t="n">
+        <v>171.3878286617272</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>97</v>
+      </c>
+      <c r="C7" t="n">
+        <v>15.28190853242381</v>
+      </c>
+      <c r="D7" t="n">
+        <v>173.3824606870184</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>98</v>
+      </c>
+      <c r="C8" t="n">
+        <v>18.78975855923144</v>
+      </c>
+      <c r="D8" t="n">
+        <v>175.5743032791049</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>14.71386830094464</v>
+      </c>
+      <c r="D9" t="n">
+        <v>174.2002910175407</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>101</v>
+      </c>
+      <c r="C10" t="n">
+        <v>22.3198871630005</v>
+      </c>
+      <c r="D10" t="n">
+        <v>175.6456431451187</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>102</v>
+      </c>
+      <c r="C11" t="n">
+        <v>23.87968813020984</v>
+      </c>
+      <c r="D11" t="n">
+        <v>176.2557175143116</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>104</v>
+      </c>
+      <c r="C12" t="n">
+        <v>25.66308661182341</v>
+      </c>
+      <c r="D12" t="n">
+        <v>180.8632994418697</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>105</v>
+      </c>
+      <c r="C13" t="n">
+        <v>29.60368719736113</v>
+      </c>
+      <c r="D13" t="n">
+        <v>190.6707604886587</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>108</v>
+      </c>
+      <c r="C14" t="n">
+        <v>31.78908826020726</v>
+      </c>
+      <c r="D14" t="n">
+        <v>183.1267607866607</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>109</v>
+      </c>
+      <c r="C15" t="n">
+        <v>31.27201804964945</v>
+      </c>
+      <c r="D15" t="n">
+        <v>196.586082129481</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>111</v>
+      </c>
+      <c r="C16" t="n">
+        <v>31.25972424362431</v>
+      </c>
+      <c r="D16" t="n">
+        <v>185.6245627658288</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>112</v>
+      </c>
+      <c r="C17" t="n">
+        <v>30.5804950400725</v>
+      </c>
+      <c r="D17" t="n">
+        <v>193.4922847514086</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>114</v>
+      </c>
+      <c r="C18" t="n">
+        <v>31.48818979976226</v>
+      </c>
+      <c r="D18" t="n">
+        <v>195.3252407623887</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>115</v>
+      </c>
+      <c r="C19" t="n">
+        <v>40.28004695052734</v>
+      </c>
+      <c r="D19" t="n">
+        <v>193.3765953458056</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>116</v>
+      </c>
+      <c r="C20" t="n">
+        <v>39.23365500536912</v>
+      </c>
+      <c r="D20" t="n">
+        <v>196.870342212232</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>119</v>
+      </c>
+      <c r="C21" t="n">
+        <v>39.94112507269492</v>
+      </c>
+      <c r="D21" t="n">
+        <v>196.6713752373882</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>121</v>
+      </c>
+      <c r="C22" t="n">
+        <v>44.88924558723504</v>
+      </c>
+      <c r="D22" t="n">
+        <v>199.8699946854641</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>125</v>
+      </c>
+      <c r="C23" t="n">
+        <v>43.6283609559161</v>
+      </c>
+      <c r="D23" t="n">
+        <v>206.1061516840991</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>128</v>
+      </c>
+      <c r="C24" t="n">
+        <v>53.38786224559009</v>
+      </c>
+      <c r="D24" t="n">
+        <v>206.0336405606417</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>133</v>
+      </c>
+      <c r="C25" t="n">
+        <v>54.849388764006</v>
+      </c>
+      <c r="D25" t="n">
+        <v>214.5419317996872</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>135</v>
+      </c>
+      <c r="C26" t="n">
+        <v>54.11033806228011</v>
+      </c>
+      <c r="D26" t="n">
+        <v>210.3321324042048</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>136</v>
+      </c>
+      <c r="C27" t="n">
+        <v>58.95759509525849</v>
+      </c>
+      <c r="D27" t="n">
+        <v>218.3345603410376</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>138</v>
+      </c>
+      <c r="C28" t="n">
+        <v>57.39007002693189</v>
+      </c>
+      <c r="D28" t="n">
+        <v>218.1564439297005</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>139</v>
+      </c>
+      <c r="C29" t="n">
+        <v>65.09637594104956</v>
+      </c>
+      <c r="D29" t="n">
+        <v>219.5010676455826</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>140</v>
+      </c>
+      <c r="C30" t="n">
+        <v>60.33783421355759</v>
+      </c>
+      <c r="D30" t="n">
+        <v>211.1264760207514</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>142</v>
+      </c>
+      <c r="C31" t="n">
+        <v>71.50763282588528</v>
+      </c>
+      <c r="D31" t="n">
+        <v>218.1045976284379</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>143</v>
+      </c>
+      <c r="C32" t="n">
+        <v>63.1591030816551</v>
+      </c>
+      <c r="D32" t="n">
+        <v>220.3827117880992</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>145</v>
+      </c>
+      <c r="C33" t="n">
+        <v>64.62692772286204</v>
+      </c>
+      <c r="D33" t="n">
+        <v>221.9357337582354</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CSK2GJXP_po_data.xlsx
+++ b/po_analysis_by_asin/B0CSK2GJXP_po_data.xlsx
@@ -757,7 +757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -776,16 +776,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -794,12 +784,6 @@
       <c r="B2" t="n">
         <v>76</v>
       </c>
-      <c r="C2" t="n">
-        <v>-5.825370827157596</v>
-      </c>
-      <c r="D2" t="n">
-        <v>153.8978512955196</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -808,12 +792,6 @@
       <c r="B3" t="n">
         <v>77</v>
       </c>
-      <c r="C3" t="n">
-        <v>-0.05423358162458949</v>
-      </c>
-      <c r="D3" t="n">
-        <v>152.2165448565046</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -822,12 +800,6 @@
       <c r="B4" t="n">
         <v>85</v>
       </c>
-      <c r="C4" t="n">
-        <v>2.576470551037624</v>
-      </c>
-      <c r="D4" t="n">
-        <v>164.8781268990627</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -836,12 +808,6 @@
       <c r="B5" t="n">
         <v>91</v>
       </c>
-      <c r="C5" t="n">
-        <v>14.52493389531118</v>
-      </c>
-      <c r="D5" t="n">
-        <v>166.1462253415498</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -850,12 +816,6 @@
       <c r="B6" t="n">
         <v>94</v>
       </c>
-      <c r="C6" t="n">
-        <v>19.73947797567184</v>
-      </c>
-      <c r="D6" t="n">
-        <v>171.3878286617272</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -864,12 +824,6 @@
       <c r="B7" t="n">
         <v>97</v>
       </c>
-      <c r="C7" t="n">
-        <v>15.28190853242381</v>
-      </c>
-      <c r="D7" t="n">
-        <v>173.3824606870184</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -878,12 +832,6 @@
       <c r="B8" t="n">
         <v>98</v>
       </c>
-      <c r="C8" t="n">
-        <v>18.78975855923144</v>
-      </c>
-      <c r="D8" t="n">
-        <v>175.5743032791049</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -892,12 +840,6 @@
       <c r="B9" t="n">
         <v>100</v>
       </c>
-      <c r="C9" t="n">
-        <v>14.71386830094464</v>
-      </c>
-      <c r="D9" t="n">
-        <v>174.2002910175407</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -906,12 +848,6 @@
       <c r="B10" t="n">
         <v>101</v>
       </c>
-      <c r="C10" t="n">
-        <v>22.3198871630005</v>
-      </c>
-      <c r="D10" t="n">
-        <v>175.6456431451187</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -920,12 +856,6 @@
       <c r="B11" t="n">
         <v>102</v>
       </c>
-      <c r="C11" t="n">
-        <v>23.87968813020984</v>
-      </c>
-      <c r="D11" t="n">
-        <v>176.2557175143116</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -934,12 +864,6 @@
       <c r="B12" t="n">
         <v>104</v>
       </c>
-      <c r="C12" t="n">
-        <v>25.66308661182341</v>
-      </c>
-      <c r="D12" t="n">
-        <v>180.8632994418697</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -948,12 +872,6 @@
       <c r="B13" t="n">
         <v>105</v>
       </c>
-      <c r="C13" t="n">
-        <v>29.60368719736113</v>
-      </c>
-      <c r="D13" t="n">
-        <v>190.6707604886587</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -962,12 +880,6 @@
       <c r="B14" t="n">
         <v>108</v>
       </c>
-      <c r="C14" t="n">
-        <v>31.78908826020726</v>
-      </c>
-      <c r="D14" t="n">
-        <v>183.1267607866607</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -976,12 +888,6 @@
       <c r="B15" t="n">
         <v>109</v>
       </c>
-      <c r="C15" t="n">
-        <v>31.27201804964945</v>
-      </c>
-      <c r="D15" t="n">
-        <v>196.586082129481</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -990,12 +896,6 @@
       <c r="B16" t="n">
         <v>111</v>
       </c>
-      <c r="C16" t="n">
-        <v>31.25972424362431</v>
-      </c>
-      <c r="D16" t="n">
-        <v>185.6245627658288</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1004,12 +904,6 @@
       <c r="B17" t="n">
         <v>112</v>
       </c>
-      <c r="C17" t="n">
-        <v>30.5804950400725</v>
-      </c>
-      <c r="D17" t="n">
-        <v>193.4922847514086</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1018,12 +912,6 @@
       <c r="B18" t="n">
         <v>114</v>
       </c>
-      <c r="C18" t="n">
-        <v>31.48818979976226</v>
-      </c>
-      <c r="D18" t="n">
-        <v>195.3252407623887</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1032,12 +920,6 @@
       <c r="B19" t="n">
         <v>115</v>
       </c>
-      <c r="C19" t="n">
-        <v>40.28004695052734</v>
-      </c>
-      <c r="D19" t="n">
-        <v>193.3765953458056</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1046,12 +928,6 @@
       <c r="B20" t="n">
         <v>116</v>
       </c>
-      <c r="C20" t="n">
-        <v>39.23365500536912</v>
-      </c>
-      <c r="D20" t="n">
-        <v>196.870342212232</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1060,12 +936,6 @@
       <c r="B21" t="n">
         <v>119</v>
       </c>
-      <c r="C21" t="n">
-        <v>39.94112507269492</v>
-      </c>
-      <c r="D21" t="n">
-        <v>196.6713752373882</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1074,12 +944,6 @@
       <c r="B22" t="n">
         <v>121</v>
       </c>
-      <c r="C22" t="n">
-        <v>44.88924558723504</v>
-      </c>
-      <c r="D22" t="n">
-        <v>199.8699946854641</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1088,12 +952,6 @@
       <c r="B23" t="n">
         <v>125</v>
       </c>
-      <c r="C23" t="n">
-        <v>43.6283609559161</v>
-      </c>
-      <c r="D23" t="n">
-        <v>206.1061516840991</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1102,12 +960,6 @@
       <c r="B24" t="n">
         <v>128</v>
       </c>
-      <c r="C24" t="n">
-        <v>53.38786224559009</v>
-      </c>
-      <c r="D24" t="n">
-        <v>206.0336405606417</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1116,12 +968,6 @@
       <c r="B25" t="n">
         <v>133</v>
       </c>
-      <c r="C25" t="n">
-        <v>54.849388764006</v>
-      </c>
-      <c r="D25" t="n">
-        <v>214.5419317996872</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1130,12 +976,6 @@
       <c r="B26" t="n">
         <v>135</v>
       </c>
-      <c r="C26" t="n">
-        <v>54.11033806228011</v>
-      </c>
-      <c r="D26" t="n">
-        <v>210.3321324042048</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1144,12 +984,6 @@
       <c r="B27" t="n">
         <v>136</v>
       </c>
-      <c r="C27" t="n">
-        <v>58.95759509525849</v>
-      </c>
-      <c r="D27" t="n">
-        <v>218.3345603410376</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1158,12 +992,6 @@
       <c r="B28" t="n">
         <v>138</v>
       </c>
-      <c r="C28" t="n">
-        <v>57.39007002693189</v>
-      </c>
-      <c r="D28" t="n">
-        <v>218.1564439297005</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1172,12 +1000,6 @@
       <c r="B29" t="n">
         <v>139</v>
       </c>
-      <c r="C29" t="n">
-        <v>65.09637594104956</v>
-      </c>
-      <c r="D29" t="n">
-        <v>219.5010676455826</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1186,12 +1008,6 @@
       <c r="B30" t="n">
         <v>140</v>
       </c>
-      <c r="C30" t="n">
-        <v>60.33783421355759</v>
-      </c>
-      <c r="D30" t="n">
-        <v>211.1264760207514</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1200,12 +1016,6 @@
       <c r="B31" t="n">
         <v>142</v>
       </c>
-      <c r="C31" t="n">
-        <v>71.50763282588528</v>
-      </c>
-      <c r="D31" t="n">
-        <v>218.1045976284379</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1214,12 +1024,6 @@
       <c r="B32" t="n">
         <v>143</v>
       </c>
-      <c r="C32" t="n">
-        <v>63.1591030816551</v>
-      </c>
-      <c r="D32" t="n">
-        <v>220.3827117880992</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1227,12 +1031,6 @@
       </c>
       <c r="B33" t="n">
         <v>145</v>
-      </c>
-      <c r="C33" t="n">
-        <v>64.62692772286204</v>
-      </c>
-      <c r="D33" t="n">
-        <v>221.9357337582354</v>
       </c>
     </row>
   </sheetData>
